--- a/Code/Results/Cases/Case_5_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_104/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.012282899434211</v>
+        <v>0.3825411565577213</v>
       </c>
       <c r="C2">
-        <v>0.1849682395664161</v>
+        <v>0.06080760717030387</v>
       </c>
       <c r="D2">
-        <v>0.2240729331174407</v>
+        <v>0.1972768006716592</v>
       </c>
       <c r="E2">
-        <v>0.1758335137996099</v>
+        <v>0.1687696096472209</v>
       </c>
       <c r="F2">
-        <v>0.7522868876763127</v>
+        <v>1.424585000670405</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3107802780482309</v>
+        <v>0.7082064001760067</v>
       </c>
       <c r="J2">
-        <v>0.1836306139911557</v>
+        <v>0.1873394869776064</v>
       </c>
       <c r="K2">
-        <v>1.142581155467639</v>
+        <v>0.416912196189628</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.65231211301203</v>
+        <v>3.444437899617611</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8807861809037263</v>
+        <v>0.3426740460886037</v>
       </c>
       <c r="C3">
-        <v>0.1613805159220192</v>
+        <v>0.05361555193017864</v>
       </c>
       <c r="D3">
-        <v>0.1973162869830816</v>
+        <v>0.1905918361528904</v>
       </c>
       <c r="E3">
-        <v>0.1562550117979811</v>
+        <v>0.1643571820370866</v>
       </c>
       <c r="F3">
-        <v>0.7285069905082295</v>
+        <v>1.429303185283011</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3189972734785975</v>
+        <v>0.7158796129890419</v>
       </c>
       <c r="J3">
-        <v>0.164561650246867</v>
+        <v>0.1834558576620609</v>
       </c>
       <c r="K3">
-        <v>0.9946176143886589</v>
+        <v>0.3719707251526927</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.64389323520534</v>
+        <v>3.469712867894444</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.800122724165476</v>
+        <v>0.3182053267265985</v>
       </c>
       <c r="C4">
-        <v>0.1469110605482911</v>
+        <v>0.04919238347139299</v>
       </c>
       <c r="D4">
-        <v>0.1810095185555269</v>
+        <v>0.1865624613252663</v>
       </c>
       <c r="E4">
-        <v>0.1443919852267115</v>
+        <v>0.1617301785162901</v>
       </c>
       <c r="F4">
-        <v>0.7153796214083172</v>
+        <v>1.432980918564809</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.32478901143417</v>
+        <v>0.7209753403111172</v>
       </c>
       <c r="J4">
-        <v>0.1530787615639397</v>
+        <v>0.1811772573572625</v>
       </c>
       <c r="K4">
-        <v>0.9038500128881708</v>
+        <v>0.3443737628843166</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.642471981550983</v>
+        <v>3.487160028937922</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7672602508013142</v>
+        <v>0.308237226976189</v>
       </c>
       <c r="C5">
-        <v>0.1410158280245071</v>
+        <v>0.04738818196059924</v>
       </c>
       <c r="D5">
-        <v>0.1743919917802117</v>
+        <v>0.1849394946411138</v>
       </c>
       <c r="E5">
-        <v>0.1395942347361512</v>
+        <v>0.1606803902649645</v>
       </c>
       <c r="F5">
-        <v>0.7103836473693192</v>
+        <v>1.434675993104449</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.327330057821122</v>
+        <v>0.7231485015044541</v>
       </c>
       <c r="J5">
-        <v>0.148451809236299</v>
+        <v>0.1802753754285433</v>
       </c>
       <c r="K5">
-        <v>0.8668699583085129</v>
+        <v>0.3331277659757745</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.642795305291457</v>
+        <v>3.494754645539984</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7618036806761381</v>
+        <v>0.3065822374375671</v>
       </c>
       <c r="C6">
-        <v>0.1400369389811118</v>
+        <v>0.04708849419462524</v>
       </c>
       <c r="D6">
-        <v>0.1732947383417098</v>
+        <v>0.1846711555831888</v>
       </c>
       <c r="E6">
-        <v>0.1387996858765206</v>
+        <v>0.1605073278374469</v>
       </c>
       <c r="F6">
-        <v>0.7095749404791363</v>
+        <v>1.434969320372645</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3277627265325442</v>
+        <v>0.7235151872924028</v>
       </c>
       <c r="J6">
-        <v>0.147686551805954</v>
+        <v>0.1801272298087042</v>
       </c>
       <c r="K6">
-        <v>0.8607296154050061</v>
+        <v>0.3312603959683997</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.642902369289189</v>
+        <v>3.496045000701216</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7996795083113852</v>
+        <v>0.3180708800554441</v>
       </c>
       <c r="C7">
-        <v>0.1468315533896174</v>
+        <v>0.04916805823923198</v>
       </c>
       <c r="D7">
-        <v>0.1809201643763458</v>
+        <v>0.1865404961896218</v>
       </c>
       <c r="E7">
-        <v>0.1443271373760275</v>
+        <v>0.1617159366669298</v>
       </c>
       <c r="F7">
-        <v>0.7153108343860524</v>
+        <v>1.433002983789535</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3248225573589174</v>
+        <v>0.7210042571966824</v>
       </c>
       <c r="J7">
-        <v>0.153016154146421</v>
+        <v>0.1811649862640579</v>
       </c>
       <c r="K7">
-        <v>0.9033512683187155</v>
+        <v>0.3442220945863994</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.642472739243729</v>
+        <v>3.48726048998428</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9669204377452161</v>
+        <v>0.3687932953046982</v>
       </c>
       <c r="C8">
-        <v>0.1768310123921708</v>
+        <v>0.0583293364677786</v>
       </c>
       <c r="D8">
-        <v>0.2148200474763513</v>
+        <v>0.1949562833189304</v>
       </c>
       <c r="E8">
-        <v>0.1690479788193571</v>
+        <v>0.1672311664672392</v>
       </c>
       <c r="F8">
-        <v>0.7437712352589116</v>
+        <v>1.426049809422501</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3134543530659037</v>
+        <v>0.7107723325058544</v>
       </c>
       <c r="J8">
-        <v>0.177006168713973</v>
+        <v>0.1859784295885873</v>
       </c>
       <c r="K8">
-        <v>1.091538508679577</v>
+        <v>0.4014173298091634</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.648606732618177</v>
+        <v>3.452752435521049</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.296008003604243</v>
+        <v>0.4683154017182574</v>
       </c>
       <c r="C9">
-        <v>0.2358762692551437</v>
+        <v>0.07623421192150204</v>
       </c>
       <c r="D9">
-        <v>0.2824135077007952</v>
+        <v>0.2120521081270965</v>
       </c>
       <c r="E9">
-        <v>0.2189390691917694</v>
+        <v>0.1786973675917238</v>
       </c>
       <c r="F9">
-        <v>0.812086570970223</v>
+        <v>1.418608972497921</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2974085086296903</v>
+        <v>0.6937587135356829</v>
       </c>
       <c r="J9">
-        <v>0.2260469246124757</v>
+        <v>0.1962581699804531</v>
       </c>
       <c r="K9">
-        <v>1.461838005434316</v>
+        <v>0.5135314631701249</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.692277396761767</v>
+        <v>3.400388407791922</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.539278943247467</v>
+        <v>0.5414452157916969</v>
       </c>
       <c r="C10">
-        <v>0.2795556384082545</v>
+        <v>0.08934925765666435</v>
       </c>
       <c r="D10">
-        <v>0.3329782571964444</v>
+        <v>0.2249692238504508</v>
       </c>
       <c r="E10">
-        <v>0.2566918872259976</v>
+        <v>0.1875171254761767</v>
       </c>
       <c r="F10">
-        <v>0.8711015055321525</v>
+        <v>1.416919572574898</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2899039998022737</v>
+        <v>0.6831209828711877</v>
       </c>
       <c r="J10">
-        <v>0.2636025721958362</v>
+        <v>0.2043239766557434</v>
       </c>
       <c r="K10">
-        <v>1.735598958660717</v>
+        <v>0.5958499032641669</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.746458543958823</v>
+        <v>3.371258813343502</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.650466202904369</v>
+        <v>0.5747118371222655</v>
       </c>
       <c r="C11">
-        <v>0.2995318461975387</v>
+        <v>0.09530649450982764</v>
       </c>
       <c r="D11">
-        <v>0.3562310960361685</v>
+        <v>0.2309221928581593</v>
       </c>
       <c r="E11">
-        <v>0.274161307282391</v>
+        <v>0.1916151523982634</v>
       </c>
       <c r="F11">
-        <v>0.9001504165177181</v>
+        <v>1.416971627563683</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2875332427987232</v>
+        <v>0.6786864215858657</v>
       </c>
       <c r="J11">
-        <v>0.2810924239719697</v>
+        <v>0.2081050173505901</v>
       </c>
       <c r="K11">
-        <v>1.860734057195543</v>
+        <v>0.6332828751882289</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.776572606700967</v>
+        <v>3.360038181655483</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.692661924331219</v>
+        <v>0.5873084391926682</v>
       </c>
       <c r="C12">
-        <v>0.3071151720964167</v>
+        <v>0.09756099764879878</v>
       </c>
       <c r="D12">
-        <v>0.3650770663685137</v>
+        <v>0.2331873837916874</v>
       </c>
       <c r="E12">
-        <v>0.2808239878978256</v>
+        <v>0.193179276325445</v>
       </c>
       <c r="F12">
-        <v>0.9114927604366017</v>
+        <v>1.41710933514095</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2867956492083579</v>
+        <v>0.6770653943257336</v>
       </c>
       <c r="J12">
-        <v>0.2877802436646704</v>
+        <v>0.2095528808557674</v>
       </c>
       <c r="K12">
-        <v>1.908225420412634</v>
+        <v>0.6474551752294531</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.788822070561991</v>
+        <v>3.356081404844645</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.683569975074533</v>
+        <v>0.5845955794102338</v>
       </c>
       <c r="C13">
-        <v>0.3054810737564537</v>
+        <v>0.09707551269804071</v>
       </c>
       <c r="D13">
-        <v>0.3631700451799418</v>
+        <v>0.2326990502921547</v>
       </c>
       <c r="E13">
-        <v>0.2793868708782199</v>
+        <v>0.1928418685836135</v>
       </c>
       <c r="F13">
-        <v>0.909034342547713</v>
+        <v>1.417074429505277</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2869472104806263</v>
+        <v>0.6774119200686606</v>
       </c>
       <c r="J13">
-        <v>0.2863369123167701</v>
+        <v>0.2092403433599941</v>
       </c>
       <c r="K13">
-        <v>1.897992296209708</v>
+        <v>0.644403050865094</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.786145308559327</v>
+        <v>3.356920566584449</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.653935737447568</v>
+        <v>0.575748185945713</v>
       </c>
       <c r="C14">
-        <v>0.3001553338016265</v>
+        <v>0.09549200192358853</v>
       </c>
       <c r="D14">
-        <v>0.3569580177690739</v>
+        <v>0.2311083331460253</v>
       </c>
       <c r="E14">
-        <v>0.2747084709174032</v>
+        <v>0.1917435878402429</v>
       </c>
       <c r="F14">
-        <v>0.9010765487934123</v>
+        <v>1.416980592056476</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2874692899014626</v>
+        <v>0.6785518910149761</v>
       </c>
       <c r="J14">
-        <v>0.281641297655284</v>
+        <v>0.2082238120957953</v>
       </c>
       <c r="K14">
-        <v>1.864638972496067</v>
+        <v>0.6344488981885661</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.77756306611559</v>
+        <v>3.359706797094418</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.635796339180331</v>
+        <v>0.5703287849520677</v>
       </c>
       <c r="C15">
-        <v>0.2968957171107718</v>
+        <v>0.09452187410255419</v>
       </c>
       <c r="D15">
-        <v>0.3531584035991671</v>
+        <v>0.2301353926581697</v>
       </c>
       <c r="E15">
-        <v>0.2718491389670419</v>
+        <v>0.1910724579593861</v>
       </c>
       <c r="F15">
-        <v>0.8962475133262586</v>
+        <v>1.416938480339724</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2878102501186994</v>
+        <v>0.6792577432472733</v>
       </c>
       <c r="J15">
-        <v>0.2787737359730045</v>
+        <v>0.2076032489247126</v>
       </c>
       <c r="K15">
-        <v>1.844223420894224</v>
+        <v>0.6283513120833106</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.772418206621552</v>
+        <v>3.361451508176998</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.532024477487454</v>
+        <v>0.5392710961704381</v>
       </c>
       <c r="C16">
-        <v>0.2782525762756052</v>
+        <v>0.08895975142371526</v>
       </c>
       <c r="D16">
-        <v>0.331464057762048</v>
+        <v>0.2245817199272437</v>
       </c>
       <c r="E16">
-        <v>0.2555565763106671</v>
+        <v>0.1872510327935544</v>
       </c>
       <c r="F16">
-        <v>0.8692495462836831</v>
+        <v>1.416932682528852</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2900807769626539</v>
+        <v>0.6834189388949525</v>
       </c>
       <c r="J16">
-        <v>0.262468273231562</v>
+        <v>0.2040791260096739</v>
       </c>
       <c r="K16">
-        <v>1.727434760841362</v>
+        <v>0.593403224627167</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.744605541249371</v>
+        <v>3.372032988741381</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.468508832794669</v>
+        <v>0.5202176022428944</v>
       </c>
       <c r="C17">
-        <v>0.2668452220089819</v>
+        <v>0.08554522890648286</v>
       </c>
       <c r="D17">
-        <v>0.3182226405528183</v>
+        <v>0.2211943281627811</v>
       </c>
       <c r="E17">
-        <v>0.245640673661164</v>
+        <v>0.1849286651853177</v>
       </c>
       <c r="F17">
-        <v>0.8532688569179214</v>
+        <v>1.417139292860298</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2917478451473769</v>
+        <v>0.6860753702278473</v>
       </c>
       <c r="J17">
-        <v>0.2525737403128403</v>
+        <v>0.2019458274802872</v>
       </c>
       <c r="K17">
-        <v>1.655955514440535</v>
+        <v>0.5719595759017864</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.728984784513358</v>
+        <v>3.379044632294892</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.432024398741817</v>
+        <v>0.5092585297303174</v>
       </c>
       <c r="C18">
-        <v>0.2602937884789753</v>
+        <v>0.08358045748417453</v>
       </c>
       <c r="D18">
-        <v>0.3106298301104715</v>
+        <v>0.2192532366667592</v>
       </c>
       <c r="E18">
-        <v>0.2399648065818596</v>
+        <v>0.1836009872254252</v>
       </c>
       <c r="F18">
-        <v>0.8442828944028662</v>
+        <v>1.417335365879367</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.292804229557845</v>
+        <v>0.6876413578845089</v>
       </c>
       <c r="J18">
-        <v>0.2469204295921372</v>
+        <v>0.2007293410867703</v>
       </c>
       <c r="K18">
-        <v>1.614897772975866</v>
+        <v>0.5596244724696646</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.720510875768184</v>
+        <v>3.383268656509699</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.419679173959395</v>
+        <v>0.5055479954968405</v>
       </c>
       <c r="C19">
-        <v>0.2580771626364964</v>
+        <v>0.08291508037842732</v>
       </c>
       <c r="D19">
-        <v>0.3080629029446129</v>
+        <v>0.2185972649758128</v>
       </c>
       <c r="E19">
-        <v>0.2380476345789404</v>
+        <v>0.1831528489213383</v>
       </c>
       <c r="F19">
-        <v>0.8412749870982026</v>
+        <v>1.417415018271171</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2931783557408565</v>
+        <v>0.6881781124719133</v>
       </c>
       <c r="J19">
-        <v>0.2450126119960601</v>
+        <v>0.2003192689392108</v>
       </c>
       <c r="K19">
-        <v>1.60100525306774</v>
+        <v>0.55544782007712</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.717727721421795</v>
+        <v>3.384731654931556</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.475265089837194</v>
+        <v>0.5222458847871394</v>
       </c>
       <c r="C20">
-        <v>0.2680585182711184</v>
+        <v>0.08590879710740751</v>
       </c>
       <c r="D20">
-        <v>0.3196297681683404</v>
+        <v>0.2215541727290997</v>
       </c>
       <c r="E20">
-        <v>0.2466933581035136</v>
+        <v>0.1851750486876682</v>
       </c>
       <c r="F20">
-        <v>0.8549485603080171</v>
+        <v>1.417109305186983</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2915602174023455</v>
+        <v>0.6857886471155297</v>
       </c>
       <c r="J20">
-        <v>0.253623076545793</v>
+        <v>0.202171831032274</v>
       </c>
       <c r="K20">
-        <v>1.663558751980702</v>
+        <v>0.5742424270614777</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.730594361562083</v>
+        <v>3.378278449716646</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.662637410274556</v>
+        <v>0.5783469054586021</v>
       </c>
       <c r="C21">
-        <v>0.3017190940855414</v>
+        <v>0.09595715547331451</v>
       </c>
       <c r="D21">
-        <v>0.3587815001455965</v>
+        <v>0.2315752696982969</v>
       </c>
       <c r="E21">
-        <v>0.2760813034108907</v>
+        <v>0.1920658464365346</v>
       </c>
       <c r="F21">
-        <v>0.9034044483774153</v>
+        <v>1.417004952043968</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2873115112452851</v>
+        <v>0.6782154726525285</v>
       </c>
       <c r="J21">
-        <v>0.2830187011630443</v>
+        <v>0.2085219561230218</v>
       </c>
       <c r="K21">
-        <v>1.874432631129224</v>
+        <v>0.6373727546415751</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.780060422788694</v>
+        <v>3.358880480632251</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.785638048973226</v>
+        <v>0.6150075096577723</v>
       </c>
       <c r="C22">
-        <v>0.3238294580647505</v>
+        <v>0.1025162891919251</v>
       </c>
       <c r="D22">
-        <v>0.3846085774773371</v>
+        <v>0.2381882891205009</v>
       </c>
       <c r="E22">
-        <v>0.2955667858008511</v>
+        <v>0.1966409896936625</v>
       </c>
       <c r="F22">
-        <v>0.9370806119211466</v>
+        <v>1.417624517833787</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2854735157503896</v>
+        <v>0.6736054908103561</v>
       </c>
       <c r="J22">
-        <v>0.3026114494692678</v>
+        <v>0.2127657619222987</v>
       </c>
       <c r="K22">
-        <v>2.012875329327471</v>
+        <v>0.6786156854005299</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.817350932269193</v>
+        <v>3.347906253817541</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.719934934822078</v>
+        <v>0.5954417032301649</v>
       </c>
       <c r="C23">
-        <v>0.3120173341005454</v>
+        <v>0.09901632508413627</v>
       </c>
       <c r="D23">
-        <v>0.3708006982701875</v>
+        <v>0.234653014381621</v>
       </c>
       <c r="E23">
-        <v>0.2851397973279006</v>
+        <v>0.1941926168658128</v>
       </c>
       <c r="F23">
-        <v>0.9189144559425131</v>
+        <v>1.417230913998893</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2863650422897486</v>
+        <v>0.6760348369953775</v>
       </c>
       <c r="J23">
-        <v>0.2921173063879365</v>
+        <v>0.2104922024532385</v>
       </c>
       <c r="K23">
-        <v>1.938921998606901</v>
+        <v>0.656605295878478</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.796973405664176</v>
+        <v>3.353607458916315</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.472210488965857</v>
+        <v>0.5213289136647745</v>
       </c>
       <c r="C24">
-        <v>0.2675099660910973</v>
+        <v>0.0857444332653472</v>
       </c>
       <c r="D24">
-        <v>0.318993544266533</v>
+        <v>0.2213914671650627</v>
       </c>
       <c r="E24">
-        <v>0.2462173622212518</v>
+        <v>0.1850636353966877</v>
       </c>
       <c r="F24">
-        <v>0.8541885405257545</v>
+        <v>1.417122621859633</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2916447395281665</v>
+        <v>0.6859181538724393</v>
       </c>
       <c r="J24">
-        <v>0.2531485625154204</v>
+        <v>0.202069623753431</v>
       </c>
       <c r="K24">
-        <v>1.660121215626674</v>
+        <v>0.5732103713796448</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.72986509807879</v>
+        <v>3.378624239886364</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.206780824587469</v>
+        <v>0.441388468098296</v>
       </c>
       <c r="C25">
-        <v>0.2198633062197075</v>
+        <v>0.0713972291537317</v>
       </c>
       <c r="D25">
-        <v>0.2639860055580812</v>
+        <v>0.2073642579644996</v>
       </c>
       <c r="E25">
-        <v>0.2052674148457925</v>
+        <v>0.1755259054453191</v>
       </c>
       <c r="F25">
-        <v>0.792147430031811</v>
+        <v>1.419958649565984</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3010332065128765</v>
+        <v>0.6980344832244008</v>
       </c>
       <c r="J25">
-        <v>0.2125357493567748</v>
+        <v>0.1933871493188377</v>
       </c>
       <c r="K25">
-        <v>1.361434627760246</v>
+        <v>0.4832089932229167</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.676796967732827</v>
+        <v>3.412914473483568</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_104/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_104/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3825411565577213</v>
+        <v>1.012282899434211</v>
       </c>
       <c r="C2">
-        <v>0.06080760717030387</v>
+        <v>0.1849682395666576</v>
       </c>
       <c r="D2">
-        <v>0.1972768006716592</v>
+        <v>0.2240729331174833</v>
       </c>
       <c r="E2">
-        <v>0.1687696096472209</v>
+        <v>0.1758335137995815</v>
       </c>
       <c r="F2">
-        <v>1.424585000670405</v>
+        <v>0.7522868876763056</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7082064001760067</v>
+        <v>0.3107802780482629</v>
       </c>
       <c r="J2">
-        <v>0.1873394869776064</v>
+        <v>0.1836306139912196</v>
       </c>
       <c r="K2">
-        <v>0.416912196189628</v>
+        <v>1.142581155467667</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.444437899617611</v>
+        <v>1.65231211301203</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3426740460886037</v>
+        <v>0.8807861809038684</v>
       </c>
       <c r="C3">
-        <v>0.05361555193017864</v>
+        <v>0.1613805159222323</v>
       </c>
       <c r="D3">
-        <v>0.1905918361528904</v>
+        <v>0.1973162869832947</v>
       </c>
       <c r="E3">
-        <v>0.1643571820370866</v>
+        <v>0.1562550117979526</v>
       </c>
       <c r="F3">
-        <v>1.429303185283011</v>
+        <v>0.7285069905082437</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7158796129890419</v>
+        <v>0.3189972734785904</v>
       </c>
       <c r="J3">
-        <v>0.1834558576620609</v>
+        <v>0.1645616502467888</v>
       </c>
       <c r="K3">
-        <v>0.3719707251526927</v>
+        <v>0.9946176143885452</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.469712867894444</v>
+        <v>1.643893235205454</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3182053267265985</v>
+        <v>0.8001227241655045</v>
       </c>
       <c r="C4">
-        <v>0.04919238347139299</v>
+        <v>0.1469110605480637</v>
       </c>
       <c r="D4">
-        <v>0.1865624613252663</v>
+        <v>0.1810095185556548</v>
       </c>
       <c r="E4">
-        <v>0.1617301785162901</v>
+        <v>0.1443919852267186</v>
       </c>
       <c r="F4">
-        <v>1.432980918564809</v>
+        <v>0.7153796214083243</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7209753403111172</v>
+        <v>0.3247890114341487</v>
       </c>
       <c r="J4">
-        <v>0.1811772573572625</v>
+        <v>0.1530787615639326</v>
       </c>
       <c r="K4">
-        <v>0.3443737628843166</v>
+        <v>0.9038500128881424</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.487160028937922</v>
+        <v>1.642471981550955</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.308237226976189</v>
+        <v>0.7672602508014563</v>
       </c>
       <c r="C5">
-        <v>0.04738818196059924</v>
+        <v>0.1410158280245781</v>
       </c>
       <c r="D5">
-        <v>0.1849394946411138</v>
+        <v>0.1743919917803822</v>
       </c>
       <c r="E5">
-        <v>0.1606803902649645</v>
+        <v>0.1395942347361547</v>
       </c>
       <c r="F5">
-        <v>1.434675993104449</v>
+        <v>0.7103836473693192</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7231485015044541</v>
+        <v>0.3273300578211042</v>
       </c>
       <c r="J5">
-        <v>0.1802753754285433</v>
+        <v>0.1484518092361711</v>
       </c>
       <c r="K5">
-        <v>0.3331277659757745</v>
+        <v>0.866869958308456</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.494754645539984</v>
+        <v>1.642795305291386</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3065822374375671</v>
+        <v>0.7618036806761381</v>
       </c>
       <c r="C6">
-        <v>0.04708849419462524</v>
+        <v>0.1400369389813534</v>
       </c>
       <c r="D6">
-        <v>0.1846711555831888</v>
+        <v>0.1732947383415535</v>
       </c>
       <c r="E6">
-        <v>0.1605073278374469</v>
+        <v>0.1387996858764886</v>
       </c>
       <c r="F6">
-        <v>1.434969320372645</v>
+        <v>0.7095749404791505</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,13 +630,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7235151872924028</v>
+        <v>0.3277627265325407</v>
       </c>
       <c r="J6">
-        <v>0.1801272298087042</v>
+        <v>0.1476865518059611</v>
       </c>
       <c r="K6">
-        <v>0.3312603959683997</v>
+        <v>0.8607296154051483</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.496045000701216</v>
+        <v>1.642902369289288</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3180708800554441</v>
+        <v>0.7996795083112431</v>
       </c>
       <c r="C7">
-        <v>0.04916805823923198</v>
+        <v>0.1468315533896316</v>
       </c>
       <c r="D7">
-        <v>0.1865404961896218</v>
+        <v>0.1809201643762606</v>
       </c>
       <c r="E7">
-        <v>0.1617159366669298</v>
+        <v>0.1443271373760417</v>
       </c>
       <c r="F7">
-        <v>1.433002983789535</v>
+        <v>0.7153108343860524</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,13 +677,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7210042571966824</v>
+        <v>0.3248225573589281</v>
       </c>
       <c r="J7">
-        <v>0.1811649862640579</v>
+        <v>0.1530161541463286</v>
       </c>
       <c r="K7">
-        <v>0.3442220945863994</v>
+        <v>0.9033512683187155</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.48726048998428</v>
+        <v>1.642472739243729</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3687932953046982</v>
+        <v>0.9669204377454719</v>
       </c>
       <c r="C8">
-        <v>0.0583293364677786</v>
+        <v>0.1768310123923982</v>
       </c>
       <c r="D8">
-        <v>0.1949562833189304</v>
+        <v>0.2148200474763513</v>
       </c>
       <c r="E8">
-        <v>0.1672311664672392</v>
+        <v>0.16904797881935</v>
       </c>
       <c r="F8">
-        <v>1.426049809422501</v>
+        <v>0.7437712352589116</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7107723325058544</v>
+        <v>0.3134543530659251</v>
       </c>
       <c r="J8">
-        <v>0.1859784295885873</v>
+        <v>0.1770061687139588</v>
       </c>
       <c r="K8">
-        <v>0.4014173298091634</v>
+        <v>1.09153850867952</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.452752435521049</v>
+        <v>1.64860673261812</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4683154017182574</v>
+        <v>1.296008003604243</v>
       </c>
       <c r="C9">
-        <v>0.07623421192150204</v>
+        <v>0.2358762692549021</v>
       </c>
       <c r="D9">
-        <v>0.2120521081270965</v>
+        <v>0.2824135077008805</v>
       </c>
       <c r="E9">
-        <v>0.1786973675917238</v>
+        <v>0.2189390691917694</v>
       </c>
       <c r="F9">
-        <v>1.418608972497921</v>
+        <v>0.812086570970223</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6937587135356829</v>
+        <v>0.2974085086296725</v>
       </c>
       <c r="J9">
-        <v>0.1962581699804531</v>
+        <v>0.226046924612362</v>
       </c>
       <c r="K9">
-        <v>0.5135314631701249</v>
+        <v>1.461838005434316</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.400388407791922</v>
+        <v>1.692277396761739</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5414452157916969</v>
+        <v>1.539278943247439</v>
       </c>
       <c r="C10">
-        <v>0.08934925765666435</v>
+        <v>0.2795556384082261</v>
       </c>
       <c r="D10">
-        <v>0.2249692238504508</v>
+        <v>0.3329782571966149</v>
       </c>
       <c r="E10">
-        <v>0.1875171254761767</v>
+        <v>0.2566918872259976</v>
       </c>
       <c r="F10">
-        <v>1.416919572574898</v>
+        <v>0.8711015055321383</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6831209828711877</v>
+        <v>0.2899039998022808</v>
       </c>
       <c r="J10">
-        <v>0.2043239766557434</v>
+        <v>0.2636025721958646</v>
       </c>
       <c r="K10">
-        <v>0.5958499032641669</v>
+        <v>1.735598958660745</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.371258813343502</v>
+        <v>1.746458543958852</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5747118371222655</v>
+        <v>1.650466202904425</v>
       </c>
       <c r="C11">
-        <v>0.09530649450982764</v>
+        <v>0.2995318461977661</v>
       </c>
       <c r="D11">
-        <v>0.2309221928581593</v>
+        <v>0.3562310960362254</v>
       </c>
       <c r="E11">
-        <v>0.1916151523982634</v>
+        <v>0.274161307282391</v>
       </c>
       <c r="F11">
-        <v>1.416971627563683</v>
+        <v>0.9001504165177323</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6786864215858657</v>
+        <v>0.2875332427987232</v>
       </c>
       <c r="J11">
-        <v>0.2081050173505901</v>
+        <v>0.2810924239719981</v>
       </c>
       <c r="K11">
-        <v>0.6332828751882289</v>
+        <v>1.860734057195629</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.360038181655483</v>
+        <v>1.776572606700938</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5873084391926682</v>
+        <v>1.692661924331134</v>
       </c>
       <c r="C12">
-        <v>0.09756099764879878</v>
+        <v>0.3071151720965588</v>
       </c>
       <c r="D12">
-        <v>0.2331873837916874</v>
+        <v>0.3650770663682863</v>
       </c>
       <c r="E12">
-        <v>0.193179276325445</v>
+        <v>0.2808239878978114</v>
       </c>
       <c r="F12">
-        <v>1.41710933514095</v>
+        <v>0.9114927604366159</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6770653943257336</v>
+        <v>0.2867956492083579</v>
       </c>
       <c r="J12">
-        <v>0.2095528808557674</v>
+        <v>0.2877802436646988</v>
       </c>
       <c r="K12">
-        <v>0.6474551752294531</v>
+        <v>1.908225420412492</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.356081404844645</v>
+        <v>1.788822070561963</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5845955794102338</v>
+        <v>1.683569975074619</v>
       </c>
       <c r="C13">
-        <v>0.09707551269804071</v>
+        <v>0.3054810737567095</v>
       </c>
       <c r="D13">
-        <v>0.2326990502921547</v>
+        <v>0.3631700451798565</v>
       </c>
       <c r="E13">
-        <v>0.1928418685836135</v>
+        <v>0.2793868708782057</v>
       </c>
       <c r="F13">
-        <v>1.417074429505277</v>
+        <v>0.909034342547713</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6774119200686606</v>
+        <v>0.2869472104806228</v>
       </c>
       <c r="J13">
-        <v>0.2092403433599941</v>
+        <v>0.2863369123168127</v>
       </c>
       <c r="K13">
-        <v>0.644403050865094</v>
+        <v>1.897992296209765</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.356920566584449</v>
+        <v>1.786145308559384</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.575748185945713</v>
+        <v>1.653935737447568</v>
       </c>
       <c r="C14">
-        <v>0.09549200192358853</v>
+        <v>0.3001553338016549</v>
       </c>
       <c r="D14">
-        <v>0.2311083331460253</v>
+        <v>0.3569580177692444</v>
       </c>
       <c r="E14">
-        <v>0.1917435878402429</v>
+        <v>0.2747084709173961</v>
       </c>
       <c r="F14">
-        <v>1.416980592056476</v>
+        <v>0.9010765487934407</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6785518910149761</v>
+        <v>0.2874692899014626</v>
       </c>
       <c r="J14">
-        <v>0.2082238120957953</v>
+        <v>0.2816412976552698</v>
       </c>
       <c r="K14">
-        <v>0.6344488981885661</v>
+        <v>1.864638972496039</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.359706797094418</v>
+        <v>1.777563066115562</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5703287849520677</v>
+        <v>1.635796339180416</v>
       </c>
       <c r="C15">
-        <v>0.09452187410255419</v>
+        <v>0.296895717110516</v>
       </c>
       <c r="D15">
-        <v>0.2301353926581697</v>
+        <v>0.3531584035988544</v>
       </c>
       <c r="E15">
-        <v>0.1910724579593861</v>
+        <v>0.2718491389670419</v>
       </c>
       <c r="F15">
-        <v>1.416938480339724</v>
+        <v>0.8962475133262586</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6792577432472733</v>
+        <v>0.287810250118703</v>
       </c>
       <c r="J15">
-        <v>0.2076032489247126</v>
+        <v>0.2787737359728766</v>
       </c>
       <c r="K15">
-        <v>0.6283513120833106</v>
+        <v>1.844223420894281</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.361451508176998</v>
+        <v>1.772418206621552</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5392710961704381</v>
+        <v>1.532024477487312</v>
       </c>
       <c r="C16">
-        <v>0.08895975142371526</v>
+        <v>0.2782525762752357</v>
       </c>
       <c r="D16">
-        <v>0.2245817199272437</v>
+        <v>0.331464057762048</v>
       </c>
       <c r="E16">
-        <v>0.1872510327935544</v>
+        <v>0.25555657631066</v>
       </c>
       <c r="F16">
-        <v>1.416932682528852</v>
+        <v>0.8692495462836973</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,13 +1100,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6834189388949525</v>
+        <v>0.2900807769626574</v>
       </c>
       <c r="J16">
-        <v>0.2040791260096739</v>
+        <v>0.2624682732315762</v>
       </c>
       <c r="K16">
-        <v>0.593403224627167</v>
+        <v>1.72743476084122</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.372032988741381</v>
+        <v>1.744605541249342</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5202176022428944</v>
+        <v>1.468508832794498</v>
       </c>
       <c r="C17">
-        <v>0.08554522890648286</v>
+        <v>0.2668452220088966</v>
       </c>
       <c r="D17">
-        <v>0.2211943281627811</v>
+        <v>0.318222640552861</v>
       </c>
       <c r="E17">
-        <v>0.1849286651853177</v>
+        <v>0.245640673661164</v>
       </c>
       <c r="F17">
-        <v>1.417139292860298</v>
+        <v>0.8532688569179214</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6860753702278473</v>
+        <v>0.2917478451473698</v>
       </c>
       <c r="J17">
-        <v>0.2019458274802872</v>
+        <v>0.2525737403128829</v>
       </c>
       <c r="K17">
-        <v>0.5719595759017864</v>
+        <v>1.65595551444062</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.379044632294892</v>
+        <v>1.728984784513329</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5092585297303174</v>
+        <v>1.432024398741646</v>
       </c>
       <c r="C18">
-        <v>0.08358045748417453</v>
+        <v>0.2602937884790038</v>
       </c>
       <c r="D18">
-        <v>0.2192532366667592</v>
+        <v>0.3106298301104715</v>
       </c>
       <c r="E18">
-        <v>0.1836009872254252</v>
+        <v>0.2399648065818738</v>
       </c>
       <c r="F18">
-        <v>1.417335365879367</v>
+        <v>0.8442828944028662</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6876413578845089</v>
+        <v>0.292804229557845</v>
       </c>
       <c r="J18">
-        <v>0.2007293410867703</v>
+        <v>0.246920429592123</v>
       </c>
       <c r="K18">
-        <v>0.5596244724696646</v>
+        <v>1.614897772975837</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.383268656509699</v>
+        <v>1.720510875768156</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5055479954968405</v>
+        <v>1.419679173959508</v>
       </c>
       <c r="C19">
-        <v>0.08291508037842732</v>
+        <v>0.2580771626368232</v>
       </c>
       <c r="D19">
-        <v>0.2185972649758128</v>
+        <v>0.308062902944684</v>
       </c>
       <c r="E19">
-        <v>0.1831528489213383</v>
+        <v>0.2380476345789546</v>
       </c>
       <c r="F19">
-        <v>1.417415018271171</v>
+        <v>0.8412749870982026</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6881781124719133</v>
+        <v>0.2931783557408636</v>
       </c>
       <c r="J19">
-        <v>0.2003192689392108</v>
+        <v>0.2450126119959464</v>
       </c>
       <c r="K19">
-        <v>0.55544782007712</v>
+        <v>1.601005253067825</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.384731654931556</v>
+        <v>1.717727721421852</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5222458847871394</v>
+        <v>1.475265089837194</v>
       </c>
       <c r="C20">
-        <v>0.08590879710740751</v>
+        <v>0.2680585182711184</v>
       </c>
       <c r="D20">
-        <v>0.2215541727290997</v>
+        <v>0.3196297681681131</v>
       </c>
       <c r="E20">
-        <v>0.1851750486876682</v>
+        <v>0.2466933581034993</v>
       </c>
       <c r="F20">
-        <v>1.417109305186983</v>
+        <v>0.8549485603080313</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6857886471155297</v>
+        <v>0.2915602174023419</v>
       </c>
       <c r="J20">
-        <v>0.202171831032274</v>
+        <v>0.2536230765458356</v>
       </c>
       <c r="K20">
-        <v>0.5742424270614777</v>
+        <v>1.663558751980759</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.378278449716646</v>
+        <v>1.73059436156214</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5783469054586021</v>
+        <v>1.662637410274499</v>
       </c>
       <c r="C21">
-        <v>0.09595715547331451</v>
+        <v>0.3017190940854846</v>
       </c>
       <c r="D21">
-        <v>0.2315752696982969</v>
+        <v>0.3587815001456391</v>
       </c>
       <c r="E21">
-        <v>0.1920658464365346</v>
+        <v>0.2760813034108978</v>
       </c>
       <c r="F21">
-        <v>1.417004952043968</v>
+        <v>0.9034044483774153</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6782154726525285</v>
+        <v>0.2873115112452673</v>
       </c>
       <c r="J21">
-        <v>0.2085219561230218</v>
+        <v>0.283018701162959</v>
       </c>
       <c r="K21">
-        <v>0.6373727546415751</v>
+        <v>1.874432631129281</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.358880480632251</v>
+        <v>1.780060422788694</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6150075096577723</v>
+        <v>1.785638048973169</v>
       </c>
       <c r="C22">
-        <v>0.1025162891919251</v>
+        <v>0.3238294580649779</v>
       </c>
       <c r="D22">
-        <v>0.2381882891205009</v>
+        <v>0.3846085774774792</v>
       </c>
       <c r="E22">
-        <v>0.1966409896936625</v>
+        <v>0.2955667858008795</v>
       </c>
       <c r="F22">
-        <v>1.417624517833787</v>
+        <v>0.9370806119211466</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6736054908103561</v>
+        <v>0.2854735157503931</v>
       </c>
       <c r="J22">
-        <v>0.2127657619222987</v>
+        <v>0.3026114494692251</v>
       </c>
       <c r="K22">
-        <v>0.6786156854005299</v>
+        <v>2.012875329327414</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.347906253817541</v>
+        <v>1.817350932269164</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5954417032301649</v>
+        <v>1.719934934822021</v>
       </c>
       <c r="C23">
-        <v>0.09901632508413627</v>
+        <v>0.3120173341010855</v>
       </c>
       <c r="D23">
-        <v>0.234653014381621</v>
+        <v>0.3708006982703012</v>
       </c>
       <c r="E23">
-        <v>0.1941926168658128</v>
+        <v>0.2851397973278864</v>
       </c>
       <c r="F23">
-        <v>1.417230913998893</v>
+        <v>0.9189144559425131</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6760348369953775</v>
+        <v>0.2863650422897415</v>
       </c>
       <c r="J23">
-        <v>0.2104922024532385</v>
+        <v>0.292117306387965</v>
       </c>
       <c r="K23">
-        <v>0.656605295878478</v>
+        <v>1.938921998606872</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.353607458916315</v>
+        <v>1.796973405664147</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5213289136647745</v>
+        <v>1.472210488965771</v>
       </c>
       <c r="C24">
-        <v>0.0857444332653472</v>
+        <v>0.2675099660908415</v>
       </c>
       <c r="D24">
-        <v>0.2213914671650627</v>
+        <v>0.318993544266192</v>
       </c>
       <c r="E24">
-        <v>0.1850636353966877</v>
+        <v>0.2462173622212447</v>
       </c>
       <c r="F24">
-        <v>1.417122621859633</v>
+        <v>0.8541885405257545</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,13 +1476,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6859181538724393</v>
+        <v>0.2916447395281629</v>
       </c>
       <c r="J24">
-        <v>0.202069623753431</v>
+        <v>0.2531485625153636</v>
       </c>
       <c r="K24">
-        <v>0.5732103713796448</v>
+        <v>1.660121215626674</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.378624239886364</v>
+        <v>1.72986509807879</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.441388468098296</v>
+        <v>1.206780824587526</v>
       </c>
       <c r="C25">
-        <v>0.0713972291537317</v>
+        <v>0.2198633062196649</v>
       </c>
       <c r="D25">
-        <v>0.2073642579644996</v>
+        <v>0.2639860055582091</v>
       </c>
       <c r="E25">
-        <v>0.1755259054453191</v>
+        <v>0.2052674148457783</v>
       </c>
       <c r="F25">
-        <v>1.419958649565984</v>
+        <v>0.7921474300318181</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6980344832244008</v>
+        <v>0.30103320651288</v>
       </c>
       <c r="J25">
-        <v>0.1933871493188377</v>
+        <v>0.2125357493569027</v>
       </c>
       <c r="K25">
-        <v>0.4832089932229167</v>
+        <v>1.361434627760161</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.412914473483568</v>
+        <v>1.676796967732884</v>
       </c>
     </row>
   </sheetData>
